--- a/InputData/elec/BPHC/BAU Pumped Hydro Cap.xlsx
+++ b/InputData/elec/BPHC/BAU Pumped Hydro Cap.xlsx
@@ -1,34 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Dropbox (Energy Innovation)\EI EPS\Canada InputData\elec\BPHC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eltco\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8F2437-B3C4-4D9A-838D-B780E42A4C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24560" windowHeight="14480" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BPHC" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="gigawatts_to_megawatts">About!$B$9</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="330"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>BPHC BAU Pumped Hydro Capacity</t>
   </si>
@@ -42,21 +48,24 @@
     <t>Pumped Storage Capacity (MW)</t>
   </si>
   <si>
-    <t>National Energy Board</t>
+    <t>Notes:</t>
   </si>
   <si>
-    <t>https://www.neb-one.gc.ca/nrg/ntgrtd/mrkt/snpsht/2016/10-03pmpdstrghdr-eng.html</t>
+    <t>National Energy Board</t>
   </si>
   <si>
     <t xml:space="preserve">Market Snapshot: Pumped-storage hydro – the largest form of energy storage in Canada and a growing contributor to grid reliability
 </t>
   </si>
+  <si>
+    <t>https://www.neb-one.gc.ca/nrg/ntgrtd/mrkt/snpsht/2016/10-03pmpdstrghdr-eng.html</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,13 +108,6 @@
       <color indexed="30"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -182,7 +184,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -191,21 +193,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Body: normal cell" xfId="6"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="2"/>
-    <cellStyle name="Footnotes: top row" xfId="7"/>
-    <cellStyle name="Header: bottom row" xfId="3"/>
+    <cellStyle name="Body: normal cell" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="7" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Header: bottom row" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="8"/>
-    <cellStyle name="Parent row" xfId="5"/>
-    <cellStyle name="Table title" xfId="4"/>
+    <cellStyle name="Normal 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Parent row" xfId="5" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Table title" xfId="4" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -266,9 +265,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -296,14 +295,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -331,6 +347,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -506,194 +539,178 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
+      <c r="B3" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>2016</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B5" s="7" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B7" s="6"/>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B8" s="6"/>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="5"/>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{58FDCC3F-C28C-4B7B-B7A7-F4803F668685}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AL2"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:AL2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.36328125" customWidth="1"/>
+    <col min="1" max="1" width="30.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="C1">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="D1">
-        <v>2016</v>
+        <v>2022</v>
       </c>
       <c r="E1">
-        <v>2017</v>
+        <v>2023</v>
       </c>
       <c r="F1">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="G1">
-        <v>2019</v>
+        <v>2025</v>
       </c>
       <c r="H1">
-        <v>2020</v>
+        <v>2026</v>
       </c>
       <c r="I1">
-        <v>2021</v>
+        <v>2027</v>
       </c>
       <c r="J1">
-        <v>2022</v>
+        <v>2028</v>
       </c>
       <c r="K1">
-        <v>2023</v>
+        <v>2029</v>
       </c>
       <c r="L1">
-        <v>2024</v>
+        <v>2030</v>
       </c>
       <c r="M1">
-        <v>2025</v>
+        <v>2031</v>
       </c>
       <c r="N1">
-        <v>2026</v>
+        <v>2032</v>
       </c>
       <c r="O1">
-        <v>2027</v>
+        <v>2033</v>
       </c>
       <c r="P1">
-        <v>2028</v>
+        <v>2034</v>
       </c>
       <c r="Q1">
-        <v>2029</v>
+        <v>2035</v>
       </c>
       <c r="R1">
-        <v>2030</v>
+        <v>2036</v>
       </c>
       <c r="S1">
-        <v>2031</v>
+        <v>2037</v>
       </c>
       <c r="T1">
-        <v>2032</v>
+        <v>2038</v>
       </c>
       <c r="U1">
-        <v>2033</v>
+        <v>2039</v>
       </c>
       <c r="V1">
-        <v>2034</v>
+        <v>2040</v>
       </c>
       <c r="W1">
-        <v>2035</v>
+        <v>2041</v>
       </c>
       <c r="X1">
-        <v>2036</v>
+        <v>2042</v>
       </c>
       <c r="Y1">
-        <v>2037</v>
+        <v>2043</v>
       </c>
       <c r="Z1">
-        <v>2038</v>
+        <v>2044</v>
       </c>
       <c r="AA1">
-        <v>2039</v>
+        <v>2045</v>
       </c>
       <c r="AB1">
-        <v>2040</v>
+        <v>2046</v>
       </c>
       <c r="AC1">
-        <v>2041</v>
+        <v>2047</v>
       </c>
       <c r="AD1">
-        <v>2042</v>
+        <v>2048</v>
       </c>
       <c r="AE1">
-        <v>2043</v>
+        <v>2049</v>
       </c>
       <c r="AF1">
-        <v>2044</v>
-      </c>
-      <c r="AG1">
-        <v>2045</v>
-      </c>
-      <c r="AH1">
-        <v>2046</v>
-      </c>
-      <c r="AI1">
-        <v>2047</v>
-      </c>
-      <c r="AJ1">
-        <v>2048</v>
-      </c>
-      <c r="AK1">
-        <v>2049</v>
-      </c>
-      <c r="AL1">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -701,151 +718,400 @@
         <v>174</v>
       </c>
       <c r="C2" s="4">
-        <f>B2</f>
         <v>174</v>
       </c>
       <c r="D2" s="4">
-        <f t="shared" ref="D2:AL2" si="0">C2</f>
         <v>174</v>
       </c>
       <c r="E2" s="4">
-        <f t="shared" si="0"/>
         <v>174</v>
       </c>
       <c r="F2" s="4">
-        <f t="shared" si="0"/>
         <v>174</v>
       </c>
       <c r="G2" s="4">
-        <f t="shared" si="0"/>
         <v>174</v>
       </c>
       <c r="H2" s="4">
-        <f t="shared" si="0"/>
         <v>174</v>
       </c>
       <c r="I2" s="4">
-        <f t="shared" si="0"/>
         <v>174</v>
       </c>
       <c r="J2" s="4">
-        <f t="shared" si="0"/>
         <v>174</v>
       </c>
       <c r="K2" s="4">
-        <f t="shared" si="0"/>
         <v>174</v>
       </c>
       <c r="L2" s="4">
-        <f t="shared" si="0"/>
         <v>174</v>
       </c>
       <c r="M2" s="4">
-        <f t="shared" si="0"/>
         <v>174</v>
       </c>
       <c r="N2" s="4">
-        <f t="shared" si="0"/>
         <v>174</v>
       </c>
       <c r="O2" s="4">
-        <f t="shared" si="0"/>
         <v>174</v>
       </c>
       <c r="P2" s="4">
-        <f t="shared" si="0"/>
         <v>174</v>
       </c>
       <c r="Q2" s="4">
-        <f t="shared" si="0"/>
         <v>174</v>
       </c>
       <c r="R2" s="4">
-        <f t="shared" si="0"/>
         <v>174</v>
       </c>
       <c r="S2" s="4">
-        <f t="shared" si="0"/>
         <v>174</v>
       </c>
       <c r="T2" s="4">
-        <f t="shared" si="0"/>
         <v>174</v>
       </c>
       <c r="U2" s="4">
-        <f t="shared" si="0"/>
         <v>174</v>
       </c>
       <c r="V2" s="4">
-        <f t="shared" si="0"/>
         <v>174</v>
       </c>
       <c r="W2" s="4">
-        <f t="shared" si="0"/>
         <v>174</v>
       </c>
       <c r="X2" s="4">
-        <f t="shared" si="0"/>
         <v>174</v>
       </c>
       <c r="Y2" s="4">
-        <f t="shared" si="0"/>
         <v>174</v>
       </c>
       <c r="Z2" s="4">
-        <f t="shared" si="0"/>
         <v>174</v>
       </c>
       <c r="AA2" s="4">
-        <f t="shared" si="0"/>
         <v>174</v>
       </c>
       <c r="AB2" s="4">
-        <f t="shared" si="0"/>
         <v>174</v>
       </c>
       <c r="AC2" s="4">
-        <f t="shared" si="0"/>
         <v>174</v>
       </c>
       <c r="AD2" s="4">
-        <f t="shared" si="0"/>
         <v>174</v>
       </c>
       <c r="AE2" s="4">
-        <f t="shared" si="0"/>
         <v>174</v>
       </c>
       <c r="AF2" s="4">
-        <f t="shared" si="0"/>
-        <v>174</v>
-      </c>
-      <c r="AG2" s="4">
-        <f t="shared" si="0"/>
-        <v>174</v>
-      </c>
-      <c r="AH2" s="4">
-        <f t="shared" si="0"/>
-        <v>174</v>
-      </c>
-      <c r="AI2" s="4">
-        <f t="shared" si="0"/>
-        <v>174</v>
-      </c>
-      <c r="AJ2" s="4">
-        <f t="shared" si="0"/>
-        <v>174</v>
-      </c>
-      <c r="AK2" s="4">
-        <f t="shared" si="0"/>
-        <v>174</v>
-      </c>
-      <c r="AL2" s="4">
-        <f t="shared" si="0"/>
-        <v>174</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="AG2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </of2ed5e60f3c4f8984f283882cb94320>
+    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ff7c4ad8664a4671b57370e258acad6a>
+    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l787e5950a9249679d0130235a9a791b>
+    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6681120aa8fa62dd7a0beb503524cb55">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b98e8ac0331400a99b3dbea3ee620024" ns2:_="" ns3:_="" ns4:_="">
+    <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:l787e5950a9249679d0130235a9a791b" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:ff7c4ad8664a4671b57370e258acad6a" minOccurs="0"/>
+                <xsd:element ref="ns2:of2ed5e60f3c4f8984f283882cb94320" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="52604411-7aeb-406e-8b34-4ce79a7293cc" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="l787e5950a9249679d0130235a9a791b" ma:index="9" nillable="true" ma:taxonomy="true" ma:internalName="l787e5950a9249679d0130235a9a791b" ma:taxonomyFieldName="ProposedRetention" ma:displayName="ProposedRetention" ma:default="" ma:fieldId="{5787e595-0a92-4967-9d01-30235a9a791b}" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="1899fd67-b032-445b-9d35-9f66b9475fa9" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="10" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{e351e87d-f0a7-48fd-ab84-339d8843ff25}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="d580559a-617d-4d7d-8fb9-71ff64b58360">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="ff7c4ad8664a4671b57370e258acad6a" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="ff7c4ad8664a4671b57370e258acad6a" ma:taxonomyFieldName="Region" ma:displayName="Region" ma:default="" ma:fieldId="{ff7c4ad8-664a-4671-b573-70e258acad6a}" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="d0ef5e64-ccf8-4d0f-8f9e-d1bc0965d8f9" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="of2ed5e60f3c4f8984f283882cb94320" ma:index="14" nillable="true" ma:taxonomy="true" ma:internalName="of2ed5e60f3c4f8984f283882cb94320" ma:taxonomyFieldName="Topics" ma:displayName="Topics" ma:default="" ma:fieldId="{8f2ed5e6-0f3c-4f89-84f2-83882cb94320}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="638057b0-b21b-42a9-a985-95f1f9da3292" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="de340059-046a-4f1a-8b62-ade039df3700" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="15" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="16" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="19" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="20" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="21" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="22" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="23" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="24" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d580559a-617d-4d7d-8fb9-71ff64b58360" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FCB44BB-DC09-4176-A64A-B3802CEA3A76}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B9A3521-3DB4-4F71-B9FE-11018E672020}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C4DC02-D1B2-4E9F-BC75-67A77CF53C01}"/>
 </file>
--- a/InputData/elec/BPHC/BAU Pumped Hydro Cap.xlsx
+++ b/InputData/elec/BPHC/BAU Pumped Hydro Cap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eltco\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\Canada\canada-eps\InputData\elec\BPHC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8F2437-B3C4-4D9A-838D-B780E42A4C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA8D175-3AEF-4C36-AD41-9C0C52054783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6375" yWindow="660" windowWidth="22125" windowHeight="17175" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,7 +221,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -543,18 +543,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -562,27 +562,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2016</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
     </row>
   </sheetData>
@@ -599,120 +599,125 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1">
+        <v>2019</v>
+      </c>
+      <c r="C1">
         <v>2020</v>
       </c>
-      <c r="C1">
+      <c r="D1">
         <v>2021</v>
       </c>
-      <c r="D1">
+      <c r="E1">
         <v>2022</v>
       </c>
-      <c r="E1">
+      <c r="F1">
         <v>2023</v>
       </c>
-      <c r="F1">
+      <c r="G1">
         <v>2024</v>
       </c>
-      <c r="G1">
+      <c r="H1">
         <v>2025</v>
       </c>
-      <c r="H1">
+      <c r="I1">
         <v>2026</v>
       </c>
-      <c r="I1">
+      <c r="J1">
         <v>2027</v>
       </c>
-      <c r="J1">
+      <c r="K1">
         <v>2028</v>
       </c>
-      <c r="K1">
+      <c r="L1">
         <v>2029</v>
       </c>
-      <c r="L1">
+      <c r="M1">
         <v>2030</v>
       </c>
-      <c r="M1">
+      <c r="N1">
         <v>2031</v>
       </c>
-      <c r="N1">
+      <c r="O1">
         <v>2032</v>
       </c>
-      <c r="O1">
+      <c r="P1">
         <v>2033</v>
       </c>
-      <c r="P1">
+      <c r="Q1">
         <v>2034</v>
       </c>
-      <c r="Q1">
+      <c r="R1">
         <v>2035</v>
       </c>
-      <c r="R1">
+      <c r="S1">
         <v>2036</v>
       </c>
-      <c r="S1">
+      <c r="T1">
         <v>2037</v>
       </c>
-      <c r="T1">
+      <c r="U1">
         <v>2038</v>
       </c>
-      <c r="U1">
+      <c r="V1">
         <v>2039</v>
       </c>
-      <c r="V1">
+      <c r="W1">
         <v>2040</v>
       </c>
-      <c r="W1">
+      <c r="X1">
         <v>2041</v>
       </c>
-      <c r="X1">
+      <c r="Y1">
         <v>2042</v>
       </c>
-      <c r="Y1">
+      <c r="Z1">
         <v>2043</v>
       </c>
-      <c r="Z1">
+      <c r="AA1">
         <v>2044</v>
       </c>
-      <c r="AA1">
+      <c r="AB1">
         <v>2045</v>
       </c>
-      <c r="AB1">
+      <c r="AC1">
         <v>2046</v>
       </c>
-      <c r="AC1">
+      <c r="AD1">
         <v>2047</v>
       </c>
-      <c r="AD1">
+      <c r="AE1">
         <v>2048</v>
       </c>
-      <c r="AE1">
+      <c r="AF1">
         <v>2049</v>
       </c>
-      <c r="AF1">
+      <c r="AG1">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="4">
+        <f>C2</f>
         <v>174</v>
       </c>
       <c r="C2" s="4">
@@ -805,7 +810,10 @@
       <c r="AF2" s="4">
         <v>174</v>
       </c>
-      <c r="AG2" s="4"/>
+      <c r="AG2" s="4">
+        <v>174</v>
+      </c>
+      <c r="AH2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -813,23 +821,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </of2ed5e60f3c4f8984f283882cb94320>
-    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ff7c4ad8664a4671b57370e258acad6a>
-    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l787e5950a9249679d0130235a9a791b>
-    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1093,22 +1090,60 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </of2ed5e60f3c4f8984f283882cb94320>
+    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ff7c4ad8664a4671b57370e258acad6a>
+    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l787e5950a9249679d0130235a9a791b>
+    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FCB44BB-DC09-4176-A64A-B3802CEA3A76}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B9A3521-3DB4-4F71-B9FE-11018E672020}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10D9DACC-227F-4DB0-98AB-5EBF381C491B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10D9DACC-227F-4DB0-98AB-5EBF381C491B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B9A3521-3DB4-4F71-B9FE-11018E672020}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FCB44BB-DC09-4176-A64A-B3802CEA3A76}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/InputData/elec/BPHC/BAU Pumped Hydro Cap.xlsx
+++ b/InputData/elec/BPHC/BAU Pumped Hydro Cap.xlsx
@@ -830,8 +830,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b14dc5c440242a7f7d08dacad5c84df8">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71a713f9ca42e4f2f02aa83a9b465f65" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
     <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
     <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
@@ -857,6 +857,7 @@
                 <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -957,6 +958,11 @@
     <xsd:element name="MediaServiceDateTaken" ma:index="27" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="28" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -1118,23 +1124,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10D9DACC-227F-4DB0-98AB-5EBF381C491B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
-    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
-    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD087D79-335C-4A0E-8254-AA733E5E4CFD}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
